--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -168,14 +168,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,10 +481,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,7 +511,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>43221</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -525,7 +523,7 @@
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>43393</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -537,7 +535,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>43393</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -549,7 +547,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>43393</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -567,8 +565,8 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>4080.68</v>
       </c>
     </row>
@@ -579,22 +577,28 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>9654.59</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43727</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
         <v>9654.59</v>
       </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -51,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -147,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -234,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,10 +274,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +308,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -477,17 +483,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -496,109 +502,110 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="31.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="8">
         <v>43221</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="6">
         <v>9793.6299999999992</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>43393</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
-        <v>5712.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="8">
         <v>43393</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>108.55</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>5712.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="8">
         <v>43393</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>108.55</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="8">
+        <v>43393</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>108.55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="11">
         <v>43480</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
         <v>4080.68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="8" spans="1:4">
+      <c r="A8" s="11">
         <v>43586</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="10">
         <v>9654.59</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12">
         <v>43727</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
         <v>9654.59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -608,12 +615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,12 +629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,13 +46,16 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +277,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,6 +312,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -483,17 +488,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -502,8 +507,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -517,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43221</v>
       </c>
@@ -529,7 +534,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43393</v>
       </c>
@@ -541,7 +546,7 @@
         <v>5712.95</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43393</v>
       </c>
@@ -553,7 +558,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43393</v>
       </c>
@@ -565,7 +570,7 @@
         <v>108.55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43480</v>
       </c>
@@ -577,7 +582,7 @@
         <v>4080.68</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43586</v>
       </c>
@@ -589,7 +594,7 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43727</v>
       </c>
@@ -601,10 +606,16 @@
         <v>9654.59</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10862.5</v>
+      </c>
       <c r="D10" s="10"/>
     </row>
   </sheetData>
@@ -615,12 +626,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,12 +640,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +188,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,10 +498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="C10" sqref="C10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,10 +619,42 @@
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="14">
         <v>10862.5</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>44155</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>10862.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Оплата членского взноса</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -637,9 +640,15 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14">
+        <v>11583.77</v>
+      </c>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,10 +652,16 @@
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="13">
+        <v>44418</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14">
+        <v>11583.77</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>

--- a/sputnik/personal/uch/uch2.xlsx
+++ b/sputnik/personal/uch/uch2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,13 +55,16 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислены пени за 50 дн просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +87,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,10 +205,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -556,26 +586,26 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="15">
         <v>43393</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="17">
         <v>108.55</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="15">
         <v>43393</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17">
         <v>108.55</v>
       </c>
     </row>
@@ -604,7 +634,7 @@
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="22">
         <v>43727</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -622,54 +652,66 @@
       <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>10862.5</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="21">
         <v>44155</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <v>10862.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="18">
+        <v>44155</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20">
+        <v>543.13</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>44317</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C13" s="13">
         <v>11583.77</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>44418</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
         <v>11583.77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
